--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slitrk1-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Slitrk1</t>
+  </si>
+  <si>
+    <t>Ptprs</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Slitrk1</t>
-  </si>
-  <si>
-    <t>Ptprs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.008461</v>
+        <v>0.009022333333333334</v>
       </c>
       <c r="H2">
-        <v>0.025383</v>
+        <v>0.027067</v>
       </c>
       <c r="I2">
-        <v>0.01524723368699771</v>
+        <v>0.404809799068251</v>
       </c>
       <c r="J2">
-        <v>0.02251615329754357</v>
+        <v>0.5050001865741259</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N2">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O2">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P2">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q2">
-        <v>0.03389620719033333</v>
+        <v>0.01809577217011111</v>
       </c>
       <c r="R2">
-        <v>0.305065864713</v>
+        <v>0.162861949531</v>
       </c>
       <c r="S2">
-        <v>0.0008379978903184767</v>
+        <v>0.0120503048394942</v>
       </c>
       <c r="T2">
-        <v>0.001355347112185177</v>
+        <v>0.01601990522123109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.008461</v>
+        <v>0.009022333333333334</v>
       </c>
       <c r="H3">
-        <v>0.025383</v>
+        <v>0.027067</v>
       </c>
       <c r="I3">
-        <v>0.01524723368699771</v>
+        <v>0.404809799068251</v>
       </c>
       <c r="J3">
-        <v>0.02251615329754357</v>
+        <v>0.5050001865741259</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>97.972082</v>
       </c>
       <c r="O3">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P3">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q3">
-        <v>0.2763139286006667</v>
+        <v>0.2946455937215556</v>
       </c>
       <c r="R3">
-        <v>2.486825357406</v>
+        <v>2.651810343494</v>
       </c>
       <c r="S3">
-        <v>0.006831162198554282</v>
+        <v>0.1962098765712247</v>
       </c>
       <c r="T3">
-        <v>0.01104847167951749</v>
+        <v>0.2608451543763937</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.008461</v>
+        <v>0.009022333333333334</v>
       </c>
       <c r="H4">
-        <v>0.025383</v>
+        <v>0.027067</v>
       </c>
       <c r="I4">
-        <v>0.01524723368699771</v>
+        <v>0.404809799068251</v>
       </c>
       <c r="J4">
-        <v>0.02251615329754357</v>
+        <v>0.5050001865741259</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N4">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O4">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P4">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q4">
-        <v>0.07458313683166666</v>
+        <v>0.09469540622966668</v>
       </c>
       <c r="R4">
-        <v>0.671248231485</v>
+        <v>0.8522586560670001</v>
       </c>
       <c r="S4">
-        <v>0.00184387919767304</v>
+        <v>0.06305939869490604</v>
       </c>
       <c r="T4">
-        <v>0.002982222717571171</v>
+        <v>0.08383236804842695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.008461</v>
+        <v>0.009022333333333334</v>
       </c>
       <c r="H5">
-        <v>0.025383</v>
+        <v>0.027067</v>
       </c>
       <c r="I5">
-        <v>0.01524723368699771</v>
+        <v>0.404809799068251</v>
       </c>
       <c r="J5">
-        <v>0.02251615329754357</v>
+        <v>0.5050001865741259</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N5">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O5">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P5">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q5">
-        <v>0.1608717893605</v>
+        <v>0.1123763781285</v>
       </c>
       <c r="R5">
-        <v>0.965230736163</v>
+        <v>0.674258268771</v>
       </c>
       <c r="S5">
-        <v>0.003977147630083614</v>
+        <v>0.07483348046586172</v>
       </c>
       <c r="T5">
-        <v>0.004288328660047381</v>
+        <v>0.06632337136727418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.008461</v>
+        <v>0.009022333333333334</v>
       </c>
       <c r="H6">
-        <v>0.025383</v>
+        <v>0.027067</v>
       </c>
       <c r="I6">
-        <v>0.01524723368699771</v>
+        <v>0.404809799068251</v>
       </c>
       <c r="J6">
-        <v>0.02251615329754357</v>
+        <v>0.5050001865741259</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N6">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O6">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P6">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q6">
-        <v>0.07107084881666667</v>
+        <v>0.08808399374266666</v>
       </c>
       <c r="R6">
-        <v>0.6396376393500001</v>
+        <v>0.792755943684</v>
       </c>
       <c r="S6">
-        <v>0.001757046770368304</v>
+        <v>0.05865673849676432</v>
       </c>
       <c r="T6">
-        <v>0.002841783128222353</v>
+        <v>0.07797938756079995</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.009022333333333334</v>
+        <v>0.0132655</v>
       </c>
       <c r="H7">
-        <v>0.027067</v>
+        <v>0.026531</v>
       </c>
       <c r="I7">
-        <v>0.01625879030082997</v>
+        <v>0.595190200931749</v>
       </c>
       <c r="J7">
-        <v>0.02400995632134152</v>
+        <v>0.4949998134258741</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N7">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O7">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P7">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q7">
-        <v>0.03614500413744445</v>
+        <v>0.02660614021383333</v>
       </c>
       <c r="R7">
-        <v>0.325305037237</v>
+        <v>0.159636841283</v>
       </c>
       <c r="S7">
-        <v>0.0008935937003998821</v>
+        <v>0.01771751418867739</v>
       </c>
       <c r="T7">
-        <v>0.001445265740279565</v>
+        <v>0.01570266765524373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.009022333333333334</v>
+        <v>0.0132655</v>
       </c>
       <c r="H8">
-        <v>0.027067</v>
+        <v>0.026531</v>
       </c>
       <c r="I8">
-        <v>0.01625879030082997</v>
+        <v>0.595190200931749</v>
       </c>
       <c r="J8">
-        <v>0.02400995632134152</v>
+        <v>0.4949998134258741</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>97.972082</v>
       </c>
       <c r="O8">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P8">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q8">
-        <v>0.2946455937215556</v>
+        <v>0.4332162179236667</v>
       </c>
       <c r="R8">
-        <v>2.651810343494</v>
+        <v>2.599297307542</v>
       </c>
       <c r="S8">
-        <v>0.007284366198962641</v>
+        <v>0.2884865834029166</v>
       </c>
       <c r="T8">
-        <v>0.01178146723986526</v>
+        <v>0.255679712962652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,19 +971,19 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.009022333333333334</v>
+        <v>0.0132655</v>
       </c>
       <c r="H9">
-        <v>0.027067</v>
+        <v>0.026531</v>
       </c>
       <c r="I9">
-        <v>0.01625879030082997</v>
+        <v>0.595190200931749</v>
       </c>
       <c r="J9">
-        <v>0.02400995632134152</v>
+        <v>0.4949998134258741</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N9">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O9">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P9">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q9">
-        <v>0.07953125180722222</v>
+        <v>0.1392302705885</v>
       </c>
       <c r="R9">
-        <v>0.715781266265</v>
+        <v>0.8353816235310001</v>
       </c>
       <c r="S9">
-        <v>0.001966208810755867</v>
+        <v>0.09271597739541981</v>
       </c>
       <c r="T9">
-        <v>0.003180074155793204</v>
+        <v>0.08217225982535245</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.009022333333333334</v>
+        <v>0.0132655</v>
       </c>
       <c r="H10">
-        <v>0.027067</v>
+        <v>0.026531</v>
       </c>
       <c r="I10">
-        <v>0.01625879030082997</v>
+        <v>0.595190200931749</v>
       </c>
       <c r="J10">
-        <v>0.02400995632134152</v>
+        <v>0.4949998134258741</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N10">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O10">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P10">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q10">
-        <v>0.1715446055478334</v>
+        <v>0.16522653165075</v>
       </c>
       <c r="R10">
-        <v>1.029267633287</v>
+        <v>0.660906126603</v>
       </c>
       <c r="S10">
-        <v>0.004241005984457045</v>
+        <v>0.1100273619300131</v>
       </c>
       <c r="T10">
-        <v>0.004572831889118799</v>
+        <v>0.06500998875919572</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1095,19 +1095,19 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.009022333333333334</v>
+        <v>0.0132655</v>
       </c>
       <c r="H11">
-        <v>0.027067</v>
+        <v>0.026531</v>
       </c>
       <c r="I11">
-        <v>0.01625879030082997</v>
+        <v>0.595190200931749</v>
       </c>
       <c r="J11">
-        <v>0.02400995632134152</v>
+        <v>0.4949998134258741</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N11">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O11">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P11">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q11">
-        <v>0.07578594590555557</v>
+        <v>0.129509537702</v>
       </c>
       <c r="R11">
-        <v>0.6820735131500001</v>
+        <v>0.7770572262119999</v>
       </c>
       <c r="S11">
-        <v>0.001873615606254536</v>
+        <v>0.08624276401472204</v>
       </c>
       <c r="T11">
-        <v>0.003030317296284696</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.5374369999999999</v>
-      </c>
-      <c r="H12">
-        <v>1.074874</v>
-      </c>
-      <c r="I12">
-        <v>0.9684939760121724</v>
-      </c>
-      <c r="J12">
-        <v>0.953473890381115</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>4.006170333333333</v>
-      </c>
-      <c r="N12">
-        <v>12.018511</v>
-      </c>
-      <c r="O12">
-        <v>0.0549606510611227</v>
-      </c>
-      <c r="P12">
-        <v>0.06019443438116229</v>
-      </c>
-      <c r="Q12">
-        <v>2.153064165435667</v>
-      </c>
-      <c r="R12">
-        <v>12.918384992614</v>
-      </c>
-      <c r="S12">
-        <v>0.05322905947040434</v>
-      </c>
-      <c r="T12">
-        <v>0.05739382152869756</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5374369999999999</v>
-      </c>
-      <c r="H13">
-        <v>1.074874</v>
-      </c>
-      <c r="I13">
-        <v>0.9684939760121724</v>
-      </c>
-      <c r="J13">
-        <v>0.953473890381115</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>32.65736066666667</v>
-      </c>
-      <c r="N13">
-        <v>97.972082</v>
-      </c>
-      <c r="O13">
-        <v>0.4480263330901557</v>
-      </c>
-      <c r="P13">
-        <v>0.490690906813236</v>
-      </c>
-      <c r="Q13">
-        <v>17.55127394461133</v>
-      </c>
-      <c r="R13">
-        <v>105.307643667668</v>
-      </c>
-      <c r="S13">
-        <v>0.4339108046926388</v>
-      </c>
-      <c r="T13">
-        <v>0.4678609678938532</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.5374369999999999</v>
-      </c>
-      <c r="H14">
-        <v>1.074874</v>
-      </c>
-      <c r="I14">
-        <v>0.9684939760121724</v>
-      </c>
-      <c r="J14">
-        <v>0.953473890381115</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>8.814931666666666</v>
-      </c>
-      <c r="N14">
-        <v>26.444795</v>
-      </c>
-      <c r="O14">
-        <v>0.1209320481029574</v>
-      </c>
-      <c r="P14">
-        <v>0.1324481441462082</v>
-      </c>
-      <c r="Q14">
-        <v>4.737470430138333</v>
-      </c>
-      <c r="R14">
-        <v>28.42482258083</v>
-      </c>
-      <c r="S14">
-        <v>0.1171219600945285</v>
-      </c>
-      <c r="T14">
-        <v>0.1262858472728438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.5374369999999999</v>
-      </c>
-      <c r="H15">
-        <v>1.074874</v>
-      </c>
-      <c r="I15">
-        <v>0.9684939760121724</v>
-      </c>
-      <c r="J15">
-        <v>0.953473890381115</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>19.0133305</v>
-      </c>
-      <c r="N15">
-        <v>38.026661</v>
-      </c>
-      <c r="O15">
-        <v>0.2608438823545533</v>
-      </c>
-      <c r="P15">
-        <v>0.1904556521435312</v>
-      </c>
-      <c r="Q15">
-        <v>10.2184673039285</v>
-      </c>
-      <c r="R15">
-        <v>40.873869215714</v>
-      </c>
-      <c r="S15">
-        <v>0.2526257287400127</v>
-      </c>
-      <c r="T15">
-        <v>0.1815944915943651</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.5374369999999999</v>
-      </c>
-      <c r="H16">
-        <v>1.074874</v>
-      </c>
-      <c r="I16">
-        <v>0.9684939760121724</v>
-      </c>
-      <c r="J16">
-        <v>0.953473890381115</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.399816666666668</v>
-      </c>
-      <c r="N16">
-        <v>25.19945</v>
-      </c>
-      <c r="O16">
-        <v>0.115237085391211</v>
-      </c>
-      <c r="P16">
-        <v>0.1262108625158624</v>
-      </c>
-      <c r="Q16">
-        <v>4.514372269883333</v>
-      </c>
-      <c r="R16">
-        <v>27.0862336193</v>
-      </c>
-      <c r="S16">
-        <v>0.1116064230145881</v>
-      </c>
-      <c r="T16">
-        <v>0.1203387620913554</v>
+        <v>0.07643518422343012</v>
       </c>
     </row>
   </sheetData>
